--- a/pred_ohlcv/54_21/2020-01-23 TRX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 TRX ohlcv.xlsx
@@ -2394,7 +2394,7 @@
         <v>-2608669.78836108</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-2611669.78836108</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>350268.7114389203</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>1354184.118496481</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>1354184.118496481</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>1435013.118496481</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>1667785.738496481</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>1595590.83859648</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>1593001.603196481</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>1593001.603196481</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>1593001.603196481</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>1562625.700796481</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>1586836.620296481</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>1552355.18189648</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>1474552.18189648</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>1477602.18189648</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>1569216.65589648</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>1570216.65589648</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>6350976.278848113</v>
       </c>
       <c r="H490">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>6350976.278848113</v>
       </c>
       <c r="H491">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>6232952.891848112</v>
       </c>
       <c r="H492">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>6548042.749048113</v>
       </c>
       <c r="H493">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>6768562.149948113</v>
       </c>
       <c r="H494">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>6768562.149948113</v>
       </c>
       <c r="H495">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>6450751.746107693</v>
       </c>
       <c r="H496">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>6417831.846107692</v>
       </c>
       <c r="H497">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>6352159.849507692</v>
       </c>
       <c r="H498">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>6352159.849507692</v>
       </c>
       <c r="H499">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>6352159.849507692</v>
       </c>
       <c r="H500">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>6225266.896707692</v>
       </c>
       <c r="H501">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>6247076.303807693</v>
       </c>
       <c r="H502">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>6247299.620790653</v>
       </c>
       <c r="H503">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>6247299.620790653</v>
       </c>
       <c r="H504">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>6247299.620790653</v>
       </c>
       <c r="H505">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>6247299.620790653</v>
       </c>
       <c r="H506">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>6247249.579390652</v>
       </c>
       <c r="H507">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>5210333.616653472</v>
       </c>
       <c r="H508">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>5442962.165653472</v>
       </c>
       <c r="H509">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>5543122.566655972</v>
       </c>
       <c r="H510">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>5543122.566655972</v>
       </c>
       <c r="H511">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>5540577.256655972</v>
       </c>
       <c r="H512">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>5540577.256655972</v>
       </c>
       <c r="H513">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>5540577.256655972</v>
       </c>
       <c r="H514">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>5555623.308393562</v>
       </c>
       <c r="H515">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>5555623.308393562</v>
       </c>
       <c r="H516">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>5555734.631038852</v>
       </c>
       <c r="H517">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>5541622.856084142</v>
       </c>
       <c r="H518">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>5551901.390912162</v>
       </c>
       <c r="H519">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>5474694.229012162</v>
       </c>
       <c r="H520">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>5448240.954112163</v>
       </c>
       <c r="H521">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>5447966.954112163</v>
       </c>
       <c r="H522">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>5339976.574812163</v>
       </c>
       <c r="H523">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>4946373.047212163</v>
       </c>
       <c r="H524">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-23 TRX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 TRX ohlcv.xlsx
@@ -2342,7 +2342,7 @@
         <v>-2606153.5971848</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-2608669.78836108</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-2608669.78836108</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-2611669.78836108</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>350268.7114389203</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>1354184.118496481</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>1354184.118496481</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>1435013.118496481</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>1667785.738496481</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>1595590.83859648</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>1593001.603196481</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>1593001.603196481</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>1593001.603196481</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>1562625.700796481</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>1586836.620296481</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>1552355.18189648</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>1474552.18189648</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>1477602.18189648</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>1569216.65589648</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>1570216.65589648</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>6350976.278848113</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>6350976.278848113</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>6232952.891848112</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>6548042.749048113</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>6768562.149948113</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>6768562.149948113</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>6450751.746107693</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>6417831.846107692</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>6352159.849507692</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>6352159.849507692</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>6352159.849507692</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>6225266.896707692</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>6247299.620790653</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>6247299.620790653</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>6247299.620790653</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>6247249.579390652</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>5543122.566655972</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>5540577.256655972</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>5540577.256655972</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>5540577.256655972</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>5555623.308393562</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>5555623.308393562</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>5555734.631038852</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>5541622.856084142</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>5551901.390912162</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="520" spans="1:8">
